--- a/biology/Histoire de la zoologie et de la botanique/Tse_Ten_Tashi/Tse_Ten_Tashi.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Tse_Ten_Tashi/Tse_Ten_Tashi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tse Ten Tashi (tibétain : ཚེ་བརྟན་བཀྲ་ཤིས, Wylie : tshe brtan bkra shis), aussi appelé Rhenock Kazi Tse Ten Tashi, né en 1912 et mort le 27 septembre 1972 à Gangtok[1],[2], est un botaniste et photographe Indien [3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tse Ten Tashi (tibétain : ཚེ་བརྟན་བཀྲ་ཤིས, Wylie : tshe brtan bkra shis), aussi appelé Rhenock Kazi Tse Ten Tashi, né en 1912 et mort le 27 septembre 1972 à Gangtok est un botaniste et photographe Indien .
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tse Ten Tashi fut le secrétaire du Chogyal (roi du Sikkim) [4]  Tashi Namgyal, le prince héritier Paljor Namgyal et le roi Palden Thondup Namgyal en 1963. Il a aussi reçu un des plus hauts honneurs, le Pema Dorji, en reconnaissance des services rendus au Sikkim Darbar[5]. 
-En 1951, il est au Tibet et photographie le 14e dalaï-lama donnant un enseignement à Gyantsé[6], sur le chemin entre Yatung qu'il quitte le 20 juillet pour rentrer à Lhassa. 
-Il est reçu à la Mission de l'Inde à Lhassa en août-septembre à l'époque où les Chinois sont arrivés à Lhassa, précédés du général Zhang Jingwu, le représentant du Comité central du Parti communiste chinois[7].
-En 1955, le docteur Victor Clough Rambo (en) publia des photos prises par Tse Ten Tashi d'opération d'abaissement du cristallin au Tibet réalisée par une femme, Chamy-sangyou (Yangchen Lhamo (1907-1973)[8]), épouse de Chamay Rinpoché[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tse Ten Tashi fut le secrétaire du Chogyal (roi du Sikkim)   Tashi Namgyal, le prince héritier Paljor Namgyal et le roi Palden Thondup Namgyal en 1963. Il a aussi reçu un des plus hauts honneurs, le Pema Dorji, en reconnaissance des services rendus au Sikkim Darbar. 
+En 1951, il est au Tibet et photographie le 14e dalaï-lama donnant un enseignement à Gyantsé, sur le chemin entre Yatung qu'il quitte le 20 juillet pour rentrer à Lhassa. 
+Il est reçu à la Mission de l'Inde à Lhassa en août-septembre à l'époque où les Chinois sont arrivés à Lhassa, précédés du général Zhang Jingwu, le représentant du Comité central du Parti communiste chinois.
+En 1955, le docteur Victor Clough Rambo (en) publia des photos prises par Tse Ten Tashi d'opération d'abaissement du cristallin au Tibet réalisée par une femme, Chamy-sangyou (Yangchen Lhamo (1907-1973)), épouse de Chamay Rinpoché.
 </t>
         </is>
       </c>
